--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Col1</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>fef</t>
+  </si>
+  <si>
+    <t>added few new things</t>
+  </si>
+  <si>
+    <t>git add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsafs </t>
+  </si>
+  <si>
+    <t>fsfsf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdsfdsf </t>
+  </si>
+  <si>
+    <t>vsd</t>
   </si>
 </sst>
 </file>
@@ -52,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,58 +400,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
